--- a/server/management/src/main/resources/stock ejemplo.xlsx
+++ b/server/management/src/main/resources/stock ejemplo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>ARTICULO</t>
   </si>
@@ -71,16 +71,19 @@
     <t>ESCAMADO NEGRO</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Sandalia</t>
+  </si>
+  <si>
+    <t>WANAMA</t>
+  </si>
+  <si>
+    <t>WANAMA ALMENDRA</t>
+  </si>
+  <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>Sandalia</t>
-  </si>
-  <si>
-    <t>WANAMA</t>
-  </si>
-  <si>
-    <t>WANAMA ALMENDRA</t>
   </si>
   <si>
     <t>SENA</t>
@@ -216,16 +219,16 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F2" t="n" s="0">
-        <v>0.0</v>
-      </c>
       <c r="G2" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I2" t="n" s="0">
         <v>0.0</v>
@@ -302,7 +305,7 @@
         <v>15000.0</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q3" t="s" s="0">
         <v>20</v>
@@ -313,10 +316,10 @@
         <v>2242.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>7.0</v>
@@ -355,7 +358,7 @@
         <v>150000.0</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q4" t="s" s="0">
         <v>20</v>
@@ -369,7 +372,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>44444.0</v>
@@ -408,7 +411,7 @@
         <v>15000.0</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q5" t="s" s="0">
         <v>20</v>
@@ -422,7 +425,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>1.0</v>
@@ -461,7 +464,7 @@
         <v>15000.0</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q6" t="s" s="0">
         <v>20</v>
@@ -472,10 +475,10 @@
         <v>2230.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>0.0</v>
@@ -514,7 +517,7 @@
         <v>15000.0</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q7" t="s" s="0">
         <v>20</v>
